--- a/Documentation/COMP-P3_worksheet.xlsx
+++ b/Documentation/COMP-P3_worksheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t xml:space="preserve">Color notation in the worksheet</t>
   </si>
@@ -145,6 +145,12 @@
     <t xml:space="preserve">Shift/Reduce Automaton</t>
   </si>
   <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA did the design. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Data Structure diagram and explanations</t>
   </si>
   <si>
@@ -196,7 +202,10 @@
     <t xml:space="preserve">Operations of list of tokens</t>
   </si>
   <si>
-    <t xml:space="preserve">DG</t>
+    <t xml:space="preserve">DG, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DG did the implementetion for the rule datastructure and MA did the implementation of the concrete rules. </t>
   </si>
   <si>
     <t xml:space="preserve">Stack and operations</t>
@@ -209,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">Test examples (and explanations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA did the creation of the tests. </t>
   </si>
   <si>
     <t xml:space="preserve">Overall Criteria Level (column)</t>
@@ -620,7 +632,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.44"/>
@@ -748,16 +760,16 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="3.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="51.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="101.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.44"/>
@@ -861,10 +873,16 @@
       <c r="B8" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
@@ -872,10 +890,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>26</v>
@@ -891,10 +909,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>26</v>
@@ -910,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -923,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -936,10 +954,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>26</v>
@@ -955,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -968,10 +986,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
@@ -987,10 +1005,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>26</v>
@@ -1006,10 +1024,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>26</v>
@@ -1025,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1038,10 +1056,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+        <v>43</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="23"/>
     </row>
@@ -1051,10 +1073,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>26</v>
@@ -1070,10 +1092,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>26</v>
@@ -1092,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>26</v>
@@ -1100,7 +1122,9 @@
       <c r="E22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
@@ -1108,10 +1132,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>26</v>
@@ -1129,8 +1153,12 @@
       <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="23"/>
     </row>
@@ -1140,10 +1168,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+        <v>51</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="23"/>
     </row>
@@ -1153,12 +1185,16 @@
         <v>26</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="D26" s="22"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="23"/>
+      <c r="F26" s="23" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
@@ -1177,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1193,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
@@ -1202,18 +1238,18 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1221,7 +1257,7 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>

--- a/Documentation/COMP-P3_worksheet.xlsx
+++ b/Documentation/COMP-P3_worksheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t xml:space="preserve">Color notation in the worksheet</t>
   </si>
@@ -632,7 +632,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.44"/>
@@ -760,17 +760,17 @@
   </sheetPr>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="3.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="51.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="101.34"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.44"/>
   </cols>
@@ -879,7 +879,9 @@
       <c r="D8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="23" t="s">
         <v>29</v>
       </c>
@@ -1064,7 +1066,9 @@
       <c r="D19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1163,9 @@
       <c r="D24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,7 +1182,9 @@
       <c r="D25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,8 +1198,12 @@
       <c r="C26" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F26" s="23" t="s">
         <v>53</v>
       </c>
@@ -1217,7 +1229,9 @@
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1247,9 @@
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
+      <c r="E30" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="F30" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Documentation/COMP-P3_worksheet.xlsx
+++ b/Documentation/COMP-P3_worksheet.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Production Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">MA, DG, JV, AS</t>
+    <t xml:space="preserve">MA, AS</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -145,54 +145,54 @@
     <t xml:space="preserve">Shift/Reduce Automaton</t>
   </si>
   <si>
+    <t xml:space="preserve">MA did the design, AS documentation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structure diagram and explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CQ, DG, AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block diagram and explanations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input-output manual example/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage of the program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code (35%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments in the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Division of the code in functionalities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding of the code (for another programmer to modify or use it)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation (30%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initialization of the automaton</t>
+  </si>
+  <si>
     <t xml:space="preserve">MA</t>
   </si>
   <si>
-    <t xml:space="preserve">MA did the design. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data Structure diagram and explanations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CQ, DG, AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block diagram and explanations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output format</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input-output manual example/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usage of the program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code (35%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments in the code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Division of the code in functionalities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding of the code (for another programmer to modify or use it)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation (30%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initialization of the automaton</t>
-  </si>
-  <si>
     <t xml:space="preserve">Read in tokens</t>
   </si>
   <si>
@@ -202,10 +202,10 @@
     <t xml:space="preserve">Operations of list of tokens</t>
   </si>
   <si>
-    <t xml:space="preserve">DG, MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG did the implementetion for the rule datastructure and MA did the implementation of the concrete rules. </t>
+    <t xml:space="preserve">DG, JV, MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DG and JV did the implementetion for the rule datastructure and MA did the implementation of the concrete rules. </t>
   </si>
   <si>
     <t xml:space="preserve">Stack and operations</t>
@@ -632,7 +632,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.44"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -874,16 +874,16 @@
         <v>27</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -892,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>26</v>
@@ -911,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>26</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
@@ -943,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
@@ -956,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>26</v>
@@ -975,7 +975,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -988,10 +988,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
@@ -1007,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>26</v>
@@ -1026,10 +1026,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>26</v>
@@ -1045,7 +1045,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1058,10 +1058,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>26</v>
@@ -1158,7 +1158,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>26</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>26</v>
@@ -1196,7 +1196,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>26</v>

--- a/Documentation/COMP-P3_worksheet.xlsx
+++ b/Documentation/COMP-P3_worksheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t xml:space="preserve">Color notation in the worksheet</t>
   </si>
@@ -163,13 +163,13 @@
     <t xml:space="preserve">Output format</t>
   </si>
   <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Input-output manual example/s</t>
   </si>
   <si>
     <t xml:space="preserve">Usage of the program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
   </si>
   <si>
     <t xml:space="preserve">Code (35%)</t>
@@ -632,7 +632,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="102.44"/>
@@ -761,7 +761,7 @@
   <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -932,9 +932,15 @@
       <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,11 +949,17 @@
         <v>12</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,10 +968,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>26</v>
@@ -991,7 +1003,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>26</v>
@@ -1010,7 +1022,7 @@
         <v>39</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>26</v>
@@ -1029,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>26</v>
